--- a/biology/Médecine/Ectoderme/Ectoderme.xlsx
+++ b/biology/Médecine/Ectoderme/Ectoderme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ectoderme, par opposition à l'endoderme et au mésoderme, est le feuillet externe de l'embryon des métazoaires qui se met en place au moment de la gastrulation. Il prend en charge le rôle de protection et de sensibilité. Au cours du développement, lors de la neurulation,  l'ectoderme se sépare en deux tissus : l'épiderme et le neuroectoderme.
 L'ectoderme a généralement pour rôle de donner naissance à l'épiderme de la peau, mais aussi au cristallin et à la cornée des yeux, au nez, aux oreilles…
